--- a/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
+++ b/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\contract\siteBuilding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\contract\siteBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5943292-800F-43E5-8933-24D005EB2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1842EFF0-92A9-464D-8013-02B44191A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
   <sheets>
     <sheet name="売買契約書" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_Hlk487036942" localSheetId="1">区分所有・即決なし・公簿・不可分あり・等価なし!#REF!</definedName>
     <definedName name="_Hlk487036942" localSheetId="0">売買契約書!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">区分所有・即決なし・公簿・不可分あり・等価なし!$A$1:$A$305</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$297</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$298</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
   <si>
     <t>不 動 産 売 買 契 約 書（案）</t>
     <phoneticPr fontId="1"/>
@@ -745,12 +745,18 @@
     <t xml:space="preserve">    以上、本契約締結の証として本書１通を作成し、甲及び乙は各自記名捺印の上、乙が本書を、</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">        はその所有権を放棄したものとし、乙もしくは乙が指定した者が承諾した物を除き、甲の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        費用負担で、乙が処分するものとする。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +811,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -831,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +898,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,1172 +1217,1177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF63E90F-8F30-451E-B53A-79C561965A6A}">
-  <dimension ref="A1:A296"/>
+  <dimension ref="A1:A297"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="11"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="11"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="11"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="11"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="17"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" customFormat="1" ht="17.5" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A162" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="6" t="s">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A178" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A179" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A180" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A181" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A182" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A183" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="5"/>
-    </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="5"/>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A186" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="5" t="s">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A187" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="5"/>
-    </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A188" s="5"/>
     </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A189" s="5"/>
     </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A191" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="5"/>
-    </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="14" t="s">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A195" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="15"/>
-    </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A196" s="15"/>
     </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A197" s="15"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="5"/>
-    </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="5"/>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A201" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="5" t="s">
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A202" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="5" t="s">
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A203" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="5"/>
-    </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A211" s="5"/>
     </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A212" s="5"/>
     </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A213" s="5"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A214" s="6" t="s">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A215" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="6"/>
-    </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A216" s="6"/>
+    </row>
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A217" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="12" t="s">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A218" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="12"/>
-    </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A219" s="12"/>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="12"/>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="12"/>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A222" s="10" t="s">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A222" s="12"/>
+    </row>
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A223" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A223" s="12" t="s">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A224" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="13"/>
-    </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A225" s="13"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="13"/>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A227" s="13"/>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A228" s="13"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A229" s="10" t="s">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A229" s="13"/>
+    </row>
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A230" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A230" s="6" t="s">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A231" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A231" s="12" t="s">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A232" s="13"/>
-    </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="13"/>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A234" s="6" t="s">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A235" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A235" s="12" t="s">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A236" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A236" s="13"/>
-    </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A237" s="13"/>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="13"/>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="13"/>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A240" s="10" t="s">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A241" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A241" s="10"/>
-    </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A242" s="6" t="s">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A242" s="10"/>
+    </row>
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A243" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A243" s="6"/>
-    </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A244" s="6" t="s">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A245" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A245" s="6"/>
-    </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A246" s="6" t="s">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A246" s="6"/>
+    </row>
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A247" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A247" s="12" t="s">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A248" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A248" s="13"/>
-    </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="13"/>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="13"/>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A251" s="6" t="s">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A251" s="13"/>
+    </row>
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A252" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A252" s="6" t="s">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A253" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A253" s="12" t="s">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A254" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A254" s="13"/>
-    </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="13"/>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="13"/>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="13"/>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A258" s="6" t="s">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A259" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A259" s="12" t="s">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A260" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A260" s="13"/>
-    </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A261" s="13"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A262" s="6" t="s">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A263" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A263" s="12" t="s">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A264" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A264" s="13"/>
-    </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A265" s="13"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A266" s="13"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A267" s="6"/>
-    </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A268" s="6" t="s">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A267" s="13"/>
+    </row>
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A269" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A269" s="6"/>
-    </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A280" s="9"/>
-    </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A281" s="9"/>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A282" s="9"/>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A283" s="9"/>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A284" s="9"/>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A285" s="6" t="s">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A285" s="9"/>
+    </row>
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A286" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A286" s="6" t="s">
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A287" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A287" s="6" t="s">
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A288" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A288" s="6" t="s">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A289" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A289" s="6" t="s">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A290" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A290" s="9"/>
-    </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A291" s="6" t="s">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A291" s="9"/>
+    </row>
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A292" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A292" s="6" t="s">
+    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A293" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A293" s="6" t="s">
+    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A294" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A294" s="6" t="s">
+    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A295" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A295" s="6" t="s">
+    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A296" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A296" s="6" t="s">
+    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A297" s="6" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A195:A198"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A223:A228"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="A264:A267"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2375,8 +2396,8 @@
     <brk id="77" man="1"/>
     <brk id="116" man="1"/>
     <brk id="153" man="1"/>
-    <brk id="183" man="1"/>
-    <brk id="212" man="1"/>
+    <brk id="184" man="1"/>
+    <brk id="213" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2387,1186 +2408,1186 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="17"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" customFormat="1" ht="17.5" x14ac:dyDescent="0.6"/>
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A160" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A179" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A186" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A187" s="5"/>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A188" s="5"/>
     </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A189" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A190" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5"/>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A192" s="5"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A195" s="5"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A198" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="5"/>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A200" s="5"/>
     </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="5"/>
     </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="5"/>
     </row>
-    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A204" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A205" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A214" s="5"/>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="5"/>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A216" s="5"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="5"/>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="12"/>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A224" s="12"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A225" s="12"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A227" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A228" s="13"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A229" s="13"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="13"/>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="13"/>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A232" s="13"/>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A234" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A236" s="13"/>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A237" s="13"/>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A240" s="13"/>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="13"/>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A242" s="13"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="13"/>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A244" s="13"/>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A246" s="8"/>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="13"/>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A254" s="13"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="13"/>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A258" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="13"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A260" s="13"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A261" s="13"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A262" s="13"/>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A264" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A265" s="13"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A266" s="13"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="13"/>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A270" s="13"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A271" s="13"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A272" s="13"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A273" s="13"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="9"/>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A289" s="9"/>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A290" s="9"/>
     </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A291" s="9"/>
     </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="9"/>
     </row>
-    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A297" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A298" s="9"/>
     </row>
-    <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A299" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A300" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A301" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A302" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A303" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A304" s="6" t="s">
         <v>162</v>
       </c>

--- a/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
+++ b/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\contract\siteBuilding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\siteBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1842EFF0-92A9-464D-8013-02B44191A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9644722-2165-4BE8-B44C-C6BF2185E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="326">
   <si>
     <t>不 動 産 売 買 契 約 書（案）</t>
     <phoneticPr fontId="1"/>
@@ -95,9 +95,6 @@
     <t xml:space="preserve">    第２条（公簿売買）</t>
   </si>
   <si>
-    <t xml:space="preserve">        本契約は公簿面積による売買とし、実測の結果、末尾１記載の土地面積に差異が生じても、</t>
-  </si>
-  <si>
     <t xml:space="preserve">      売買代金の精算は行わないものとし、甲及び乙は、互いに相手方に対し売買代金の増減等</t>
   </si>
   <si>
@@ -113,12 +110,6 @@
     <t xml:space="preserve">        乙は、甲に対し、下記の条件が充足されることを条件として、下記即決和解成立の日から</t>
   </si>
   <si>
-    <t xml:space="preserve">      $settlementAfter$以内に、甲から本物件の所有権移転登記手続きに必要な一切の書類を受領するのと引</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      き換えに、第３条に定める売買代金$tradingPrice$円を支払う。</t>
-  </si>
-  <si>
     <t xml:space="preserve">        末尾２記載の各不動産（以下「不可分不動産」という。）につき、売主が不可分不動産に居</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t xml:space="preserve">    第７条（本物件の明渡し）</t>
   </si>
   <si>
-    <t xml:space="preserve">      １  甲は、乙に対し、$vacationDay$（以下「明渡期日」という。）限り、本物件</t>
-  </si>
-  <si>
     <t xml:space="preserve">        を明渡す。</t>
   </si>
   <si>
@@ -242,12 +230,6 @@
     <t xml:space="preserve">      乙の負担とする。なお、公租公課の起算日は、１月１日とする。</t>
   </si>
   <si>
-    <t xml:space="preserve">    第１２条（契約不適合責任）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        甲は、乙に対し、本物件につき契約不適合を理由とする責任を負わないものとする。</t>
-  </si>
-  <si>
     <t xml:space="preserve">    第１３条（権利義務の譲渡禁止）</t>
   </si>
   <si>
@@ -438,13 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">              年    月    日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         売  主：  住所  $contractorAddress$
-                                   氏名  $contractorName$                              印                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         買  主：    東京都中央区銀座四丁目１０番１０号</t>
   </si>
   <si>
     <t xml:space="preserve">                                     株式会社メトロス開発</t>
@@ -488,13 +463,6 @@
     <t xml:space="preserve">    （専有部分の建物の表示）</t>
   </si>
   <si>
-    <t xml:space="preserve">                家屋  番号： $p_buildingNumber$
-                種      類： $dependType$
-                構      造： $structure$
-                床  面  積： $floorSpace$
-                登記名義人： $sharer$</t>
-  </si>
-  <si>
     <t xml:space="preserve">        $matsubi1_comment$</t>
   </si>
   <si>
@@ -521,12 +489,6 @@
       種      類： $dependType$
       構      造： $structure$
       床  面  積： $floorSpace$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                家屋  番号： $p_buildingNumber$
-                種      類： $dependType$
-                構      造： $structure$
-                床  面  積： $floorSpace$</t>
   </si>
   <si>
     <t xml:space="preserve">    ＜計画地の公図＞</t>
@@ -727,29 +689,586 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>$specialTerms9_1$      ６  本契約に基づく甲の義務について、$specialTerms9_1_val$は、連帯して乙に対して責任を負うものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    その写しを甲が保有する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    以上、本契約締結の証として本書１通を作成し、甲及び乙は各自記名捺印の上、乙が本書を、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１条（売買）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  甲は、自己の所有に係る本物件を乙または乙の指定する第三者に売渡し、乙又は乙の指</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  本物件には、本物件に附属する構築物、立木等、全て現況有姿のまま含まれるものとす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第２条（公簿売買）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        本契約は公簿面積による売買とし、実測の結果、末尾１記載の土地面積に差異が生じても、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第３条（売買代金）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第４条（売買代金の支払方法）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        乙は、甲に対し、下記の条件が充足されることを条件として、下記即決和解成立の日から</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      $settlementAfter$以内に、甲から本物件の所有権移転登記手続きに必要な一切の書類を受領するのと引</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      き換えに、第３条に定める売買代金$tradingPrice$円を支払う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第５条（所有権移転登記）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        甲は、乙に対し、乙から本物件の売買代金全額を受領するのと引き換えに、本物件の所有</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      権移転登記手続きに必要な一切の書類を交付する。なお、登記手続きに要する費用は乙の負</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      担とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第６条（所有権移転の時期）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第７条（本物件の明渡し）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  甲は、乙に対し、$vacationDay$（以下「明渡期日」という。）限り、本物件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        を明渡す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  乙は、甲に対し、本物件の所有権移転日から明渡期日まで、本物件の明渡しを猶予する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第８条（不可分一体特約）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  前項によって本契約が解除された場合は、甲及び乙は、解除により生じる損害について、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        それぞれ相手方に対し一切の請求を行わないものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ３  不可分不動産の明渡し状況等、不可分契約の履行状況等により乙が必要と判断した場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        は、乙は甲に書面で通知することにより、所有権移転期日を延長することができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第９条（危険負担）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  本物件の所有権移転日までに、天災地変その他の不可抗力により、本物件の全部又は一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        部が滅失、毀損等をした場合、その他公用徴収・建築制限・道路編入等公法上の負担が課</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        せられた場合には、その損失は甲の負担とする。ただし、本件建物が滅失または毀損した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ときは、甲は乙に対し現状のまま引き渡す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  前項の場合において、第１条に定める目的を達することができないと乙が判断したとき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        は、乙は本契約を解除することができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１０条（完全なる所有権）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  甲は、本物件について第三者の所有権、抵当権、質権、賃借権及び使用貸借権等、その</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        他所有権の完全な行使を妨げる瑕疵及び負担がないこと、並びに公租公課その他の賦課金、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        負担金等の滞納又は未払い等が存在しないことを担保する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  前項の事項について第三者から異議及び苦情等を申し立てられたときは、甲は自己の責</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        任と負担において処理解決するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ３  末尾１記載の本件土地上に滅失漏れの建物登記が存在する場合は第６条の所有権移転</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        の時期までに甲の責にて、その建物の滅失登記を完了させるものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１１条（公租公課等の負担）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        本物件に関する公租公課その他の賦課金、負担金等は、納税告知書又は請求書等の宛名名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      義の如何にかかわらず本物件の所有権移転日をもって区分し、同日までは甲の、翌日以降は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      乙の負担とする。なお、公租公課の起算日は、１月１日とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１２条（契約不適合責任）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        甲は、乙に対し、本物件につき契約不適合を理由とする責任を負わないものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１３条（権利義務の譲渡禁止）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        甲及び乙は、互いに相手方の書面による承諾を得なければ、本契約に基づく権利義務、又</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      は契約上の地位を第三者に譲渡、引受け又は承継することはできないものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１４条（契約解除）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  甲及び乙は、乙が第１０条第２項に基づき本契約を解除したときは、それぞれ相手方に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        対し一切の請求を行わないものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  甲及び乙は、相手方が次の各号の一つに該当したときは、なんらの催告を要することな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        く本契約を解除することができる。なお、本項に定める解除は有責者に対する相手方の損</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        害賠償の請求を妨げるものではない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （１）本契約に違反し、相当な期間を定めて催告を受けたにもかかわらず、これを是正し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            ないとき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （２）手形又は小切手を不渡りにする等、支払停止又は支払不能の状態に陥ったとき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （３）破産、会社更生、民事再生又は特別清算の手続開始の申立てがあったとき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （４）仮処分、仮差押、差押又は競売の手続き開始の申立てを受けたとき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ３  前項に基づき本契約を解除された者は、相手方に対し、売買代金の２割相当額の違約金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        を支払うものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１５条（印紙代の負担）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        本契約書の印紙代は、甲と乙が折半して負担する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１６条（許認可取得への協力）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        乙は、本契約締結以降、甲の承諾を得た上で区分所有建物の建設に必要な関係諸官庁との</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      協議、許認可取得手続並びに近隣折衝等に着手できるものとし、甲は乙の作業に協力するも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      のとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１７条（暴排条項）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （１）暴力団、暴力団員、暴力団準構成員、暴力団員・暴力団準構成員でなくなった日か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            ら５年を経過しない者、暴力団関係企業、総会屋等、社会運動標榜ゴロ、特殊知能暴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            力団、その他これらに準ずる者でないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （２）暴力的要求行為、不当要求行為、脅迫的言動、暴力行為、風説流布・偽計による信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            用毀損行為、業務妨害行為、その他これらに準ずる行為を行わないこと（第三者を利</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            用して行う場合も含む。）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （３）自己又は第三者をして本物件を暴力団事務所の用に供しないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        （４）（１）に該当するものを本契約の媒介者としないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  甲又は乙が第１項において表明及び保証した事由に一つでも違反した場合（以下、違反</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ３  前項に基づき本契約を解除した場合、甲又は乙は、それぞれ違反者に対し、違約金とし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        て売買代金の２割相当額を請求することができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１８条（協議等）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  本契約に定めなき事項又は本契約の解釈に疑義を生じた事項については、甲及び乙は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        信義に従い誠実に協議したうえ、円満なる解決を図るものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  本契約に関する一切の紛争については、東京地方裁判所を第一審の専属合意管轄裁判所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    第１９条（特約条項）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      １  甲は本物件の土壌汚染調査に協力するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ２  乙は、本物件の所有権の移転先となる者（乙を含む。）を書面により指定するものとし、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        甲は、乙の指定する者に対し、乙による指定及び乙の甲に対する売買代金全額の支払いを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        条件として、本物件の所有権を直接移転するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ３  甲は、乙に対し、本物件の所有権移転先に指定された者が甲に対してする「本物件の所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        有権移転を受ける旨の意思表示」の受領権限を与える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ４  乙が、乙以外の者を本物件の所有権移転先として指定した場合は、甲は、乙の指定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        者に対し、乙がその者に対して負う所有権の移転債務を履行するため、本物件の所有権を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        直接移転するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ５  甲が本物件の明渡しの際、本物件に残置した什器備品その他一切の動産については、甲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        はその所有権を放棄したものとし、乙もしくは乙が指定した者が承諾した物を除き、甲の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        費用負担で、乙が処分するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">        て建物登記を完了させるものとする。なお、登記手続きに要する費用は乙の負担とする。$specialTerms7_end$</t>
-  </si>
-  <si>
-    <t>$specialTerms7_start$      ６  末尾１記載の未登記建物については、第６条記載の所有者移転時までに甲の責任におい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$specialTerms9_1$      ６  本契約に基づく甲の義務について、$specialTerms9_1_val$は、連帯して乙に対して責任を負うものとする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    その写しを甲が保有する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    以上、本契約締結の証として本書１通を作成し、甲及び乙は各自記名捺印の上、乙が本書を、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        はその所有権を放棄したものとし、乙もしくは乙が指定した者が承諾した物を除き、甲の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        費用負担で、乙が処分するものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$specialTerms8$      ６  甲は、第６条記載の所有権移転時までに、相続登記を完了させるものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              年    月    日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         売  主：  住所  $contractorAddress$
+                                   氏名  $contractorName$                              印                                </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         買  主：    東京都中央区銀座四丁目１０番１０号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     株式会社メトロス開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     代表取締役 小柴義弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    末尾１  ＜本物件の表示＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    $contractTypeTitle$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        土地    所      在： $l_address$
+                地      番： $blockNumber$
+                地      目： $landCategory$
+                地      積： $area$
+                登記名義人： $sharer$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                             $repear_sharer$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        建物    所      在： $b_address$
+                家屋  番号： $buildingNumber$
+                種      類： $dependType$
+                構      造： $structure$
+                床  面  積： $floorSpace$
+                登記名義人： $sharer$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （一棟の建物の表示）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                所      在： $ob_address$
+                構      造： $structure$
+                床  面  積： $floorSpace$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （専有部分の建物の表示）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                家屋  番号： $p_buildingNumber$
+                種      類： $dependType$
+                構      造： $structure$
+                床  面  積： $floorSpace$
+                登記名義人： $sharer$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        $matsubi1_comment$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    末尾２  ＜本計画地の表示＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    【不可分不動産（土地）】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      所      在： $fl_address$
+      地      番： $blockNumber$
+      地      目： $landCategory$
+      地      積： $area$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    【不可分不動産（建物）】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      所      在： $fb_address$
+      家屋  番号： $buildingNumber$
+      種      類： $dependType$
+      構      造： $structure$
+      床  面  積： $floorSpace$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                家屋  番号： $p_buildingNumber$
+                種      類： $dependType$
+                構      造： $structure$
+                床  面  積： $floorSpace$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ＜計画地の公図＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    末尾３  ＜本件マンションの計画概要＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      敷地面積： $siteArea$㎡（有効敷地面積 $siteAvailableArea$㎡）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      構    造： $structure$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      規    模： $scale$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      延床面積： $totalFloorArea$㎡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    末尾４  ＜事業スケジュール＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      建築確認取得    ： $acquisitionConfirmDay$（目途）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      計画建物着工    ： $startScheduledDay$（目途）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      優先分譲契約締結： $prioritySalesAgreementDay$（目途）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      計画建物竣工    ： $finishScheduledDay$（目途）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      取得物件引渡    ： $deliveryDay$（目途）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$specialTerms7_start$      ６  末尾１記載の未登記建物については、第６条記載の所有権移転時までに甲の責任におい</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -881,6 +1400,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -898,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1237,12 +1756,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1273,22 +1792,22 @@
       <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1303,103 +1822,103 @@
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:1" customFormat="1" ht="17.5" x14ac:dyDescent="0.6"/>
     <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1409,572 +1928,572 @@
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="3" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A162" s="3" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="5" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="5" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="5" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="5" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="5" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="5" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="5" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="5" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A178" s="18" t="s">
-        <v>202</v>
+      <c r="A178" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A179" s="18" t="s">
-        <v>203</v>
+      <c r="A179" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="6" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="6" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="6" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1985,12 +2504,12 @@
     </row>
     <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A186" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A187" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2004,25 +2523,25 @@
     </row>
     <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A192" s="5"/>
     </row>
     <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A195" s="14" t="s">
-        <v>130</v>
+      <c r="A195" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A196" s="15"/>
+      <c r="A196" s="16"/>
     </row>
     <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A197" s="15"/>
+      <c r="A197" s="16"/>
     </row>
     <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A198" s="15"/>
+      <c r="A198" s="16"/>
     </row>
     <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="5"/>
@@ -2032,17 +2551,17 @@
     </row>
     <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="5" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="5" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2059,7 +2578,7 @@
     </row>
     <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="6" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2067,97 +2586,97 @@
     </row>
     <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="6" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A218" s="12" t="s">
-        <v>136</v>
+      <c r="A218" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="12"/>
+      <c r="A219" s="13"/>
     </row>
     <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="12"/>
+      <c r="A220" s="13"/>
     </row>
     <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="12"/>
+      <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A222" s="12"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="10" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="12" t="s">
-        <v>138</v>
+      <c r="A224" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="13"/>
+      <c r="A225" s="14"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A226" s="13"/>
+      <c r="A226" s="14"/>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="13"/>
+      <c r="A227" s="14"/>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="13"/>
+      <c r="A228" s="14"/>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="13"/>
+      <c r="A229" s="14"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="10" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="6" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="12" t="s">
-        <v>140</v>
+      <c r="A232" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A233" s="13"/>
+      <c r="A233" s="14"/>
     </row>
     <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="13"/>
+      <c r="A234" s="14"/>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="6" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="12" t="s">
-        <v>142</v>
+      <c r="A236" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="13"/>
+      <c r="A237" s="14"/>
     </row>
     <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A238" s="13"/>
+      <c r="A238" s="14"/>
     </row>
     <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A239" s="13"/>
+      <c r="A239" s="14"/>
     </row>
     <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="13"/>
+      <c r="A240" s="14"/>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="10" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2165,7 +2684,7 @@
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="6" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2173,7 +2692,7 @@
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="6" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2181,91 +2700,91 @@
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
-        <v>145</v>
+        <v>307</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="12" t="s">
-        <v>146</v>
+      <c r="A248" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="13"/>
+      <c r="A249" s="14"/>
     </row>
     <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A250" s="13"/>
+      <c r="A250" s="14"/>
     </row>
     <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A251" s="13"/>
+      <c r="A251" s="14"/>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="6" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="6" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="12" t="s">
-        <v>149</v>
+      <c r="A254" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="13"/>
+      <c r="A255" s="14"/>
     </row>
     <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="13"/>
+      <c r="A256" s="14"/>
     </row>
     <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A257" s="13"/>
+      <c r="A257" s="14"/>
     </row>
     <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="13"/>
+      <c r="A258" s="14"/>
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="6" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="12" t="s">
-        <v>140</v>
+      <c r="A260" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="13"/>
+      <c r="A261" s="14"/>
     </row>
     <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="13"/>
+      <c r="A262" s="14"/>
     </row>
     <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A264" s="12" t="s">
-        <v>150</v>
+      <c r="A264" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A265" s="13"/>
+      <c r="A265" s="14"/>
     </row>
     <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A266" s="13"/>
+      <c r="A266" s="14"/>
     </row>
     <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A267" s="13"/>
+      <c r="A267" s="14"/>
     </row>
     <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="6"/>
     </row>
     <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="6" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2318,27 +2837,27 @@
     </row>
     <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="6" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="6" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="6" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A289" s="6" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A290" s="6" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2346,36 +2865,41 @@
     </row>
     <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="6" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="6" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="6" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="6" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A297" s="6" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="A264:A267"/>
     <mergeCell ref="A232:A234"/>
     <mergeCell ref="A195:A198"/>
     <mergeCell ref="A10:A11"/>
@@ -2383,11 +2907,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A218:A222"/>
     <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A248:A251"/>
-    <mergeCell ref="A254:A258"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="A264:A267"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2424,12 +2943,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2460,22 +2979,22 @@
       <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2490,12 +3009,12 @@
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2516,7 +3035,7 @@
     </row>
     <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2546,17 +3065,17 @@
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2566,12 +3085,12 @@
     </row>
     <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2581,22 +3100,22 @@
     </row>
     <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2606,37 +3125,37 @@
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2646,17 +3165,17 @@
     </row>
     <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2666,22 +3185,22 @@
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2691,117 +3210,117 @@
     </row>
     <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2811,22 +3330,22 @@
     </row>
     <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2836,12 +3355,12 @@
     </row>
     <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2851,17 +3370,17 @@
     </row>
     <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2871,67 +3390,67 @@
     </row>
     <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2941,32 +3460,32 @@
     </row>
     <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2976,112 +3495,112 @@
     </row>
     <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A160" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3091,92 +3610,92 @@
     </row>
     <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A179" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A186" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3187,12 +3706,12 @@
     </row>
     <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A189" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A190" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3206,7 +3725,7 @@
     </row>
     <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3214,7 +3733,7 @@
     </row>
     <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A198" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3225,7 +3744,7 @@
     </row>
     <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3236,17 +3755,17 @@
     </row>
     <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A204" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A205" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3263,7 +3782,7 @@
     </row>
     <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3271,100 +3790,100 @@
     </row>
     <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="12" t="s">
-        <v>136</v>
+      <c r="A221" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A222" s="12"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="12"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="12"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="12"/>
+      <c r="A225" s="13"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="12" t="s">
-        <v>138</v>
+      <c r="A227" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="13"/>
+      <c r="A228" s="14"/>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="13"/>
+      <c r="A229" s="14"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="13"/>
+      <c r="A230" s="14"/>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A231" s="13"/>
+      <c r="A231" s="14"/>
     </row>
     <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="13"/>
+      <c r="A232" s="14"/>
     </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A234" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A235" s="12" t="s">
-        <v>140</v>
+      <c r="A235" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="13"/>
+      <c r="A236" s="14"/>
     </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="13"/>
+      <c r="A237" s="14"/>
     </row>
     <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A239" s="12" t="s">
-        <v>177</v>
+      <c r="A239" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="13"/>
+      <c r="A240" s="14"/>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="13"/>
+      <c r="A241" s="14"/>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="13"/>
+      <c r="A242" s="14"/>
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="13"/>
+      <c r="A243" s="14"/>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A244" s="13"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3372,7 +3891,7 @@
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3380,7 +3899,7 @@
     </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3388,94 +3907,94 @@
     </row>
     <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="12" t="s">
-        <v>146</v>
+      <c r="A252" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="13"/>
+      <c r="A253" s="14"/>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="13"/>
+      <c r="A254" s="14"/>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="13"/>
+      <c r="A255" s="14"/>
     </row>
     <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="12" t="s">
-        <v>149</v>
+      <c r="A258" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A259" s="13"/>
+      <c r="A259" s="14"/>
     </row>
     <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="13"/>
+      <c r="A260" s="14"/>
     </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="13"/>
+      <c r="A261" s="14"/>
     </row>
     <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="13"/>
+      <c r="A262" s="14"/>
     </row>
     <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A264" s="12" t="s">
-        <v>140</v>
+      <c r="A264" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A265" s="13"/>
+      <c r="A265" s="14"/>
     </row>
     <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A266" s="13"/>
+      <c r="A266" s="14"/>
     </row>
     <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A268" s="12" t="s">
-        <v>177</v>
+      <c r="A268" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A269" s="13"/>
+      <c r="A269" s="14"/>
     </row>
     <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A270" s="13"/>
+      <c r="A270" s="14"/>
     </row>
     <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A271" s="13"/>
+      <c r="A271" s="14"/>
     </row>
     <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A272" s="13"/>
+      <c r="A272" s="14"/>
     </row>
     <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A273" s="13"/>
+      <c r="A273" s="14"/>
     </row>
     <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3483,7 +4002,7 @@
     </row>
     <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3536,27 +4055,27 @@
     </row>
     <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A297" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -3564,32 +4083,32 @@
     </row>
     <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A299" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A300" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A301" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A302" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A303" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A304" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
+++ b/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\siteBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9644722-2165-4BE8-B44C-C6BF2185E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0999F-B39B-467E-A608-049337912CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">区分所有・即決なし・公簿・不可分あり・等価なし!$A$1:$A$305</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$298</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1097,10 +1097,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        て建物登記を完了させるものとする。なお、登記手続きに要する費用は乙の負担とする。$specialTerms7_end$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$specialTerms8$      ６  甲は、第６条記載の所有権移転時までに、相続登記を完了させるものとする。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1268,6 +1264,10 @@
   </si>
   <si>
     <t>$specialTerms7_start$      ６  末尾１記載の未登記建物については、第６条記載の所有権移転時までに甲の責任におい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        て建物登記を完了させるものとする。なお、登記手続きに要する費用は甲の負担とする。$specialTerms7_end$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2478,17 +2478,17 @@
     </row>
     <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="6" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2523,7 +2523,7 @@
     </row>
     <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2531,7 +2531,7 @@
     </row>
     <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A195" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2551,17 +2551,17 @@
     </row>
     <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2578,7 +2578,7 @@
     </row>
     <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2586,12 +2586,12 @@
     </row>
     <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2608,12 +2608,12 @@
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A224" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2633,17 +2633,17 @@
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A232" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2654,12 +2654,12 @@
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A236" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2676,7 +2676,7 @@
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2700,12 +2700,12 @@
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A248" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2719,17 +2719,17 @@
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A254" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2746,12 +2746,12 @@
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A260" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2762,12 +2762,12 @@
     </row>
     <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A264" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2784,7 +2784,7 @@
     </row>
     <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2837,27 +2837,27 @@
     </row>
     <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A289" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A290" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2865,32 +2865,32 @@
     </row>
     <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A297" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
+++ b/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\siteBuilding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\06_VBA\変換結果\20231219\contract\siteBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0999F-B39B-467E-A608-049337912CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC64C5-FDA2-40D3-BABC-097982CF3D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1110,10 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                         買  主：    東京都中央区銀座四丁目１０番１０号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">                                     株式会社メトロス開発</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1268,6 +1258,10 @@
   </si>
   <si>
     <t xml:space="preserve">        て建物登記を完了させるものとする。なお、登記手続きに要する費用は甲の負担とする。$specialTerms7_end$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         買  主：    東京都中央区銀座三丁目９番７号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1363,7 +1357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,17 +1382,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1756,12 +1741,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1774,40 +1759,40 @@
     <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="11"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="11"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="11"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="11"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="11"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="18"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2467,23 +2452,23 @@
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2530,18 +2515,18 @@
       <c r="A192" s="5"/>
     </row>
     <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A196" s="16"/>
+      <c r="A196" s="13"/>
     </row>
     <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A197" s="16"/>
+      <c r="A197" s="13"/>
     </row>
     <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A198" s="16"/>
+      <c r="A198" s="13"/>
     </row>
     <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="5"/>
@@ -2551,17 +2536,17 @@
     </row>
     <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2578,7 +2563,7 @@
     </row>
     <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2586,105 +2571,105 @@
     </row>
     <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A218" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A218" s="13" t="s">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A219" s="10"/>
+    </row>
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A220" s="10"/>
+    </row>
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A221" s="10"/>
+    </row>
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A222" s="10"/>
+    </row>
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A223" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="13"/>
-    </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="13"/>
-    </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="13"/>
-    </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A222" s="13"/>
-    </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="10" t="s">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A224" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="14"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A226" s="14"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="14"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="14"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="14"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="10" t="s">
-        <v>298</v>
+      <c r="A230" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A233" s="14"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="14"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A236" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="14"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A238" s="14"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A239" s="14"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="14"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="10" t="s">
-        <v>298</v>
+      <c r="A241" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="10"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2692,7 +2677,7 @@
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2700,91 +2685,91 @@
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A248" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="14"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A250" s="14"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A251" s="14"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A254" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="14"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="14"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A257" s="14"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="14"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A260" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="14"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="14"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A264" s="13" t="s">
-        <v>311</v>
+      <c r="A264" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A265" s="14"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A266" s="14"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A267" s="14"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="6"/>
     </row>
     <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2821,85 +2806,80 @@
       <c r="A280" s="6"/>
     </row>
     <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A281" s="9"/>
+      <c r="A281" s="8"/>
     </row>
     <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A282" s="9"/>
+      <c r="A282" s="8"/>
     </row>
     <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A283" s="9"/>
+      <c r="A283" s="8"/>
     </row>
     <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A284" s="9"/>
+      <c r="A284" s="8"/>
     </row>
     <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A285" s="9"/>
+      <c r="A285" s="8"/>
     </row>
     <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A289" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A290" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A291" s="9"/>
+      <c r="A291" s="8"/>
     </row>
     <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A297" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A248:A251"/>
-    <mergeCell ref="A254:A258"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="A264:A267"/>
     <mergeCell ref="A232:A234"/>
     <mergeCell ref="A195:A198"/>
     <mergeCell ref="A10:A11"/>
@@ -2907,6 +2887,11 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A218:A222"/>
     <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="A264:A267"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2943,12 +2928,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2979,22 +2964,22 @@
       <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="18"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -3794,21 +3779,21 @@
       </c>
     </row>
     <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A222" s="13"/>
+      <c r="A222" s="10"/>
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="13"/>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="13"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="13"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="7" t="s">
@@ -3816,24 +3801,24 @@
       </c>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="14"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="14"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="14"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A231" s="14"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="14"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="7" t="s">
@@ -3846,15 +3831,15 @@
       </c>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="14"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="14"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="6" t="s">
@@ -3862,24 +3847,24 @@
       </c>
     </row>
     <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="14"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="14"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="14"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="14"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A244" s="14"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="7" t="s">
@@ -3887,7 +3872,7 @@
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A246" s="8"/>
+      <c r="A246" s="7"/>
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="6" t="s">
@@ -3911,18 +3896,18 @@
       </c>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="13" t="s">
+      <c r="A252" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="14"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="14"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="14"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="6" t="s">
@@ -3935,21 +3920,21 @@
       </c>
     </row>
     <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="13" t="s">
+      <c r="A258" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A259" s="14"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="14"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="14"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="14"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6" t="s">
@@ -3957,15 +3942,15 @@
       </c>
     </row>
     <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A264" s="13" t="s">
+      <c r="A264" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A265" s="14"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A266" s="14"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="6" t="s">
@@ -3973,24 +3958,24 @@
       </c>
     </row>
     <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A269" s="14"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A270" s="14"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A271" s="14"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A272" s="14"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A273" s="14"/>
+      <c r="A273" s="11"/>
     </row>
     <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="7" t="s">
@@ -4039,19 +4024,19 @@
       <c r="A287" s="6"/>
     </row>
     <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A288" s="9"/>
+      <c r="A288" s="8"/>
     </row>
     <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A289" s="9"/>
+      <c r="A289" s="8"/>
     </row>
     <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A290" s="9"/>
+      <c r="A290" s="8"/>
     </row>
     <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A291" s="9"/>
+      <c r="A291" s="8"/>
     </row>
     <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A292" s="9"/>
+      <c r="A292" s="8"/>
     </row>
     <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="6" t="s">
@@ -4079,7 +4064,7 @@
       </c>
     </row>
     <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A298" s="9"/>
+      <c r="A298" s="8"/>
     </row>
     <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A299" s="6" t="s">

--- a/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
+++ b/template/contract/siteBuilding/売買契約書【敷地権付区分建物・即決なし・公簿・不可分あり・等価交換なし】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\06_VBA\変換結果\20231219\contract\siteBuilding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\挿入済\siteBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC64C5-FDA2-40D3-BABC-097982CF3D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F00307F-1141-4012-88B1-4ED9E96616CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
   <sheets>
     <sheet name="売買契約書" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <definedName name="_Hlk487036942" localSheetId="1">区分所有・即決なし・公簿・不可分あり・等価なし!#REF!</definedName>
     <definedName name="_Hlk487036942" localSheetId="0">売買契約書!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">区分所有・即決なし・公簿・不可分あり・等価なし!$A$1:$A$305</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$298</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$300</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="328">
   <si>
     <t>不 動 産 売 買 契 約 書（案）</t>
     <phoneticPr fontId="1"/>
@@ -1263,6 +1263,12 @@
   <si>
     <t xml:space="preserve">                         買  主：    東京都中央区銀座三丁目９番７号</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    以上、本契約締結の証として本契約書の電磁的記録を作成し、甲乙合意のうえ電子署名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    およびタイムスタンプを附したものを甲乙が各自保有するものとする。</t>
   </si>
 </sst>
 </file>
@@ -1721,1177 +1727,1188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF63E90F-8F30-451E-B53A-79C561965A6A}">
-  <dimension ref="A1:A297"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A299"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="3"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1" ht="17.5" x14ac:dyDescent="0.6"/>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5"/>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5"/>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A188" s="5"/>
-    </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A189" s="5"/>
-    </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A192" s="5"/>
-    </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A195" s="12" t="s">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A196" s="13"/>
-    </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A197" s="13"/>
-    </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="13"/>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A199" s="5"/>
-    </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A200" s="5"/>
-    </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A201" s="5" t="s">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A202" s="5" t="s">
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A203" s="5" t="s">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A211" s="5"/>
-    </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A212" s="5"/>
-    </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="5"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5"/>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="5"/>
+    </row>
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A216" s="6"/>
-    </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A217" s="6" t="s">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="6"/>
+    </row>
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A218" s="10" t="s">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="10"/>
-    </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="10"/>
-    </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="10"/>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="10"/>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="7" t="s">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="10"/>
+    </row>
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="10"/>
+    </row>
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="10" t="s">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="11"/>
-    </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A226" s="11"/>
-    </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="7" t="s">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A230" s="11"/>
+    </row>
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="11"/>
+    </row>
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A231" s="6" t="s">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="10" t="s">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A233" s="11"/>
-    </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="11"/>
-    </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A235" s="6" t="s">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="11"/>
+    </row>
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A236" s="11"/>
+    </row>
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="10" t="s">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="11"/>
-    </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A238" s="11"/>
-    </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="7" t="s">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="11"/>
+    </row>
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="11"/>
+    </row>
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="7"/>
-    </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="6" t="s">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A245" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A244" s="6"/>
-    </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A245" s="6" t="s">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="6"/>
+    </row>
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A246" s="6"/>
-    </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A247" s="6" t="s">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="6"/>
+    </row>
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="10" t="s">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="11"/>
-    </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A250" s="11"/>
-    </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="11"/>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="6" t="s">
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="11"/>
+    </row>
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="11"/>
+    </row>
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A254" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="6" t="s">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="10" t="s">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A256" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="11"/>
-    </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="11"/>
-    </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="11"/>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="11"/>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="11"/>
+    </row>
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A260" s="11"/>
+    </row>
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A261" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="10" t="s">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="11"/>
-    </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="11"/>
-    </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A263" s="11"/>
+    </row>
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A264" s="11"/>
+    </row>
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A265" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A264" s="10" t="s">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A266" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A265" s="11"/>
-    </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A266" s="11"/>
-    </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="11"/>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A268" s="6"/>
-    </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A269" s="6" t="s">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="11"/>
+    </row>
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="11"/>
+    </row>
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="6"/>
+    </row>
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A271" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A270" s="6"/>
-    </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A271" s="6"/>
-    </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A281" s="8"/>
-    </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A282" s="8"/>
-    </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="8"/>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="8"/>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="8"/>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A286" s="6" t="s">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A286" s="8"/>
+    </row>
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="8"/>
+    </row>
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A288" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A287" s="6" t="s">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A289" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A288" s="6" t="s">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A290" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A289" s="6" t="s">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A291" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A290" s="6" t="s">
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A292" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A291" s="8"/>
-    </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A292" s="6" t="s">
+    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A293" s="8"/>
+    </row>
+    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A294" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A293" s="6" t="s">
+    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A295" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A294" s="6" t="s">
+    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A295" s="6" t="s">
+    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A297" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A296" s="6" t="s">
+    <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A298" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A297" s="6" t="s">
+    <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A299" s="6" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A197:A200"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A248:A251"/>
-    <mergeCell ref="A254:A258"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="A264:A267"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A226:A231"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,1197 +2918,1198 @@
     <brk id="116" man="1"/>
     <brk id="153" man="1"/>
     <brk id="184" man="1"/>
-    <brk id="213" man="1"/>
+    <brk id="215" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A8303-A456-41AF-8E52-1B33A3195F03}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A304"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="3"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1" ht="17.5" x14ac:dyDescent="0.6"/>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5"/>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5"/>
     </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5"/>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5"/>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5"/>
     </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="5"/>
     </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="5"/>
     </row>
-    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5"/>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="5"/>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="5"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5"/>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="10"/>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="10"/>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="10"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="10"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="11"/>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="11"/>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="11"/>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="11"/>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="11"/>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="7"/>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="11"/>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="11"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="11"/>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="11"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="11"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="11"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="11"/>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="11"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="11"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="11"/>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="11"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="11"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="11"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="11"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="8"/>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="8"/>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="8"/>
     </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="8"/>
     </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="8"/>
     </row>
-    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="8"/>
     </row>
-    <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="6" t="s">
         <v>152</v>
       </c>
